--- a/20170719-schools/builds/production/data/maindata.xlsx
+++ b/20170719-schools/builds/production/data/maindata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>dist#</t>
   </si>
@@ -65,13 +65,31 @@
   </si>
   <si>
     <t>Source: Minneaplis Public Schools</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>districts</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minneaplis Public Schools</t>
+  </si>
+  <si>
+    <t>Capital projects data by Minneapolis school district neighborhood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +111,13 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -118,9 +143,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -395,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,22 +588,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="50.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
